--- a/Docs/microbeINTSmethods.xlsx
+++ b/Docs/microbeINTSmethods.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25860" yWindow="1880" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21140" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Method</t>
   </si>
@@ -130,13 +130,94 @@
   </si>
   <si>
     <t>Data Type</t>
+  </si>
+  <si>
+    <t>ReBoot</t>
+  </si>
+  <si>
+    <t>WGCNA</t>
+  </si>
+  <si>
+    <t>CoNet</t>
+  </si>
+  <si>
+    <t>eLSA</t>
+  </si>
+  <si>
+    <t>FASTLSA</t>
+  </si>
+  <si>
+    <t>BioMiCo</t>
+  </si>
+  <si>
+    <t>MIC</t>
+  </si>
+  <si>
+    <t>MINET</t>
+  </si>
+  <si>
+    <t>Merlin</t>
+  </si>
+  <si>
+    <t>RAVEN Toolbox</t>
+  </si>
+  <si>
+    <t>Metaflux</t>
+  </si>
+  <si>
+    <t>Model SEED</t>
+  </si>
+  <si>
+    <t>Systems Biology Knowledgebase</t>
+  </si>
+  <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>Faust K, Sathirapongsasuti JF, Izard J, Segata N, Gevers D, Raes J, Huttenhower C: Microbial co-occurrence relationships in the human microbiome. PLoS Comput Biol 2012, 8:e1002606.</t>
+  </si>
+  <si>
+    <t>Langfelder P, Horvath S: WGCNA: an R package for weighted correlation network analysis. BMC Bioinform 2008, 9:559.</t>
+  </si>
+  <si>
+    <t>Xia LC, Ai D, Cram J, Fuhrman JA, Sun F: Efficient statistical significance approximation for local similarity analysis of high-throughput time series data. Bioinformatics 2013, 29:230-237.</t>
+  </si>
+  <si>
+    <t>Durno WE, Hanson NW, Konwar KM, Hallam SJ: Expanding the boundaries of local similarity analysis. BMC Genom 2013, 14:S3.</t>
+  </si>
+  <si>
+    <t>Shafiei M, Dunn KA, Boon E, MacDonald SM, Walsh DA, Gu H, Bielawski JP: BioMiCo: a supervised Bayesian model for inference of microbial community structure. Microbiome 2015, 3:8.</t>
+  </si>
+  <si>
+    <t>Meyer PE, Lafitte F, Bontempi G: minet: A R/bioconductor package for inferring large transcriptional networks using mutual information. BMC Bioinform 2008, 9:461.</t>
+  </si>
+  <si>
+    <t>Reshef DN, Reshef YA, Finucane HK, Grossman SR, McVean G, Turnbaugh PJ, Lander ES, Mitzenmacher M, Sabeti PC: Detecting novel associations in large datasets. Science 2011, 334:1518-1524.</t>
+  </si>
+  <si>
+    <t>Dias O, Rocha M, Ferreira EC, Rocha I: Merlin: Metabolic Models Reconstruction Using Genome-Scale Information. 2010.</t>
+  </si>
+  <si>
+    <t>Agren R, Liu L, Shoaie S, Vongsangnak W, Nookaew I, Nielsen J: The RAVEN toolbox and its use for generating a genome-scale metabolic model for Penicillium chrysogenum. PLOS Comput Biol 2013, 9:e1002980.</t>
+  </si>
+  <si>
+    <t>Feng X, Xu Y, Chen Y, Tang YJ: MicrobesFlux: a web platform for drafting metabolic models from the KEGG database. BMC Syst Biol 2012, 6:94.</t>
+  </si>
+  <si>
+    <t>Henry CS, DeJongh M, Best AA, Frybarger PM, Linsay B, Stevens RL: High-throughput generation, optimization and analysis of genome-scale metabolic models. Nat Biotechnol 2010, 28:977-982.</t>
+  </si>
+  <si>
+    <t>Palumbo A, Baumohl J, Best A, Bischof J, Bowen B, Brettin T, Brown T, Canon S, Chan S, Chandonia J et al.: KBase: an integrated knowledgebase for predictive biology and environmental research. In Proceedings of the International Conference on Bioinformatics &amp; Computational Biology (BIOCOMP). The Steering Committee of The World Congress in Computer Science, Computer Engineering and Applied Computing (WorldComp). 2014:1.</t>
+  </si>
+  <si>
+    <t>Harcombe WR, Riehl WJ, Dukovski I, Granger BR, Betts A, Lang AH, Bonilla G, Kar A, Leiby N, Mehta P et al.: Metabolic resource allocation in individual microbes determines ecosystem interactions and spatial dynamics. Cell Rep 2014, 7:1104-1115.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -149,6 +230,22 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -169,8 +266,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -190,7 +289,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -520,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.33203125" defaultRowHeight="59" customHeight="1" x14ac:dyDescent="0"/>
@@ -677,8 +778,121 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="59" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="59" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="59" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="59" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="59" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="59" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="59" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="59" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="59" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="59" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="59" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="59" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="109" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="82" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
